--- a/biology/Médecine/Polyclinique_internationale_Sainte-Anne-Marie/Polyclinique_internationale_Sainte-Anne-Marie.xlsx
+++ b/biology/Médecine/Polyclinique_internationale_Sainte-Anne-Marie/Polyclinique_internationale_Sainte-Anne-Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polyclinique internationale Sainte-Anne-Marie est un établissement hospitalier privé ivoirien ouvert en 1985 en vue notamment de constituer une alternative aux difficultés d'équipement constatées dans les centres hospitaliers universitaires publics d'Abidjan. Il est situé dans la commune de Cocody.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel de la Pisam
  Portail de la Côte d’Ivoire   Portail de la médecine                    </t>
